--- a/Spreadsheet Applications/Collaborating with Others and Preparing a Workbook for Distribution/Summer Schedule.xlsx
+++ b/Spreadsheet Applications/Collaborating with Others and Preparing a Workbook for Distribution/Summer Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Collaborating with Others and Preparing a Workbook for Distribution/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_8B01A72C6915A43C46EF0B9914EF9E20F61D633D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B1EBA51-976F-40D5-A6FE-4265BDE10DD4}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_8B01A72C6915A43C46EF0B9914EF9E20F61D633D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C405CC0-456D-4DF9-8882-8B60BDA1D7C4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1191,12 +1191,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1549,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
